--- a/data/output/summary/Models_AIC_with_bayesian_learner.xlsx
+++ b/data/output/summary/Models_AIC_with_bayesian_learner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10707"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dddd1007/project2git/cognitive_control_model/data/output/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC792FF-A32C-6943-8C41-458D745F3C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693AC1AB-3B29-544E-BA82-01C029DAB8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="23720" windowHeight="16200"/>
+    <workbookView xWindow="5080" yWindow="1800" windowWidth="23720" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models_AIC_with_bayesian_learne" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>sub</t>
   </si>
@@ -190,13 +190,17 @@
   </si>
   <si>
     <t>SR_无K</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bl_ab_stan</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1159,16 +1163,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="162" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1205,8 +1212,11 @@
       <c r="L1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1243,8 +1253,11 @@
       <c r="L2">
         <v>11514.0940174976</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2">
+        <v>11498.1606398524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1281,8 +1294,11 @@
       <c r="L3">
         <v>11459.513882311099</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3">
+        <v>11468.070301899401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1319,8 +1335,11 @@
       <c r="L4">
         <v>11525.1041814336</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4">
+        <v>11534.5454317616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1376,11 @@
       <c r="L5">
         <v>11778.018534152299</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5">
+        <v>11770.5926534554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1395,8 +1417,11 @@
       <c r="L6">
         <v>12599.351499634</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6">
+        <v>12615.237533096501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1433,8 +1458,11 @@
       <c r="L7">
         <v>11717.3367405808</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7">
+        <v>11728.072605044001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1471,8 +1499,11 @@
       <c r="L8">
         <v>12327.049871424701</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8">
+        <v>12339.842083421099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1509,8 +1540,11 @@
       <c r="L9">
         <v>11740.201712010999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9">
+        <v>11739.5267389622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1547,8 +1581,11 @@
       <c r="L10">
         <v>12439.930341114299</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10">
+        <v>12440.1207934304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1585,8 +1622,11 @@
       <c r="L11">
         <v>12662.4708892115</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="N11">
+        <v>12670.525756605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1623,8 +1663,11 @@
       <c r="L12">
         <v>12904.544164836199</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12">
+        <v>12904.063096265199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1661,8 +1704,11 @@
       <c r="L13">
         <v>12820.2188361313</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="N13">
+        <v>12811.038041170899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1699,8 +1745,11 @@
       <c r="L14">
         <v>11635.807150030199</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14">
+        <v>11646.7540498453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1737,8 +1786,11 @@
       <c r="L15">
         <v>11954.906636081299</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15">
+        <v>11957.3294448903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1775,8 +1827,11 @@
       <c r="L16">
         <v>12106.812073151799</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16">
+        <v>12106.094855146101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1813,8 +1868,11 @@
       <c r="L17">
         <v>12125.173024714</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17">
+        <v>12125.862620932299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1851,8 +1909,11 @@
       <c r="L18">
         <v>10504.688175261101</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="N18">
+        <v>10531.0519892676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1889,8 +1950,11 @@
       <c r="L19">
         <v>12215.42144156</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="N19">
+        <v>12216.037226074999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="L20">
         <v>11942.693174910801</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="N20">
+        <v>11954.397742098399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1965,8 +2032,11 @@
       <c r="L21">
         <v>12670.8085790326</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="N21">
+        <v>12685.606523832999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2003,8 +2073,11 @@
       <c r="L22">
         <v>12246.767294441999</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="N22">
+        <v>12256.753535531199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2041,8 +2114,11 @@
       <c r="L23">
         <v>12414.173829393099</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="N23">
+        <v>12417.370703766001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2079,8 +2155,11 @@
       <c r="L24">
         <v>12330.8961220904</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="N24">
+        <v>12345.6582974023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2117,8 +2196,11 @@
       <c r="L25">
         <v>10982.303452923699</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="N25">
+        <v>10989.711180971601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2155,8 +2237,11 @@
       <c r="L26">
         <v>10809.083037402301</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="N26">
+        <v>10809.1172577459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2193,8 +2278,11 @@
       <c r="L27">
         <v>10786.3245366355</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="N27">
+        <v>10801.415404605799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2231,8 +2319,11 @@
       <c r="L28">
         <v>11835.676757503399</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="N28">
+        <v>11839.2232875196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2269,8 +2360,11 @@
       <c r="L29">
         <v>12655.307698803501</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="N29">
+        <v>12654.637441839101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2307,8 +2401,11 @@
       <c r="L30">
         <v>12033.4713552103</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="N30">
+        <v>12035.988835341701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2345,8 +2442,11 @@
       <c r="L31">
         <v>11925.9516410425</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="N31">
+        <v>11927.118511918299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2483,11 @@
       <c r="L32">
         <v>10697.79707339</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="N32">
+        <v>10702.0363214672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2421,8 +2524,11 @@
       <c r="L33">
         <v>11114.4920840334</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="N33">
+        <v>11109.225693927199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2459,8 +2565,11 @@
       <c r="L34">
         <v>12191.9493365542</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="N34">
+        <v>12188.591605077099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2497,8 +2606,11 @@
       <c r="L35">
         <v>10794.4402787323</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="N35">
+        <v>10790.3607933084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2537,8 +2649,12 @@
         <f>AVERAGE(L2:L35)</f>
         <v>11866.552335977551</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="N37">
+        <f>AVERAGE(N2:N35)</f>
+        <v>11870.88644110216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="I38" t="s">
         <v>47</v>
       </c>

--- a/data/output/summary/Models_AIC_with_bayesian_learner.xlsx
+++ b/data/output/summary/Models_AIC_with_bayesian_learner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dddd1007/project2git/cognitive_control_model/data/output/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693AC1AB-3B29-544E-BA82-01C029DAB8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7489EC-A101-5844-AD40-E752D9D9EADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="23720" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="840" windowWidth="23720" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models_AIC_with_bayesian_learne" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>sub</t>
   </si>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>bl_ab_stan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bl_sr_stan</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -361,6 +365,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -799,14 +811,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,18 +1185,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,8 +1239,11 @@
       <c r="N1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1256,8 +1283,11 @@
       <c r="N2">
         <v>11498.1606398524</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>11469.4483777397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1297,8 +1327,11 @@
       <c r="N3">
         <v>11468.070301899401</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>11444.080954982999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1338,8 +1371,11 @@
       <c r="N4">
         <v>11534.5454317616</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>11533.708287441799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1379,8 +1415,11 @@
       <c r="N5">
         <v>11770.5926534554</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>11762.7865020554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1420,8 +1459,11 @@
       <c r="N6">
         <v>12615.237533096501</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>12609.199621735699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1461,8 +1503,11 @@
       <c r="N7">
         <v>11728.072605044001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>11692.655744011099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1502,8 +1547,11 @@
       <c r="N8">
         <v>12339.842083421099</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>12323.964855300799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1543,8 +1591,11 @@
       <c r="N9">
         <v>11739.5267389622</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>11735.5547070622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1584,8 +1635,11 @@
       <c r="N10">
         <v>12440.1207934304</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>12437.935266938301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1625,8 +1679,11 @@
       <c r="N11">
         <v>12670.525756605</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>12648.775209699001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1666,8 +1723,11 @@
       <c r="N12">
         <v>12904.063096265199</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>12871.4679632513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1707,8 +1767,11 @@
       <c r="N13">
         <v>12811.038041170899</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>12815.869135725499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1748,8 +1811,11 @@
       <c r="N14">
         <v>11646.7540498453</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>11636.092011479501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1789,8 +1855,11 @@
       <c r="N15">
         <v>11957.3294448903</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>11952.331456481401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1830,8 +1899,11 @@
       <c r="N16">
         <v>12106.094855146101</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>12064.6440385361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1871,8 +1943,11 @@
       <c r="N17">
         <v>12125.862620932299</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>12111.456071610301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1912,8 +1987,11 @@
       <c r="N18">
         <v>10531.0519892676</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>10518.4612366571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1953,8 +2031,11 @@
       <c r="N19">
         <v>12216.037226074999</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>12203.9823821801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1994,8 +2075,11 @@
       <c r="N20">
         <v>11954.397742098399</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>11955.201928882099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2035,8 +2119,11 @@
       <c r="N21">
         <v>12685.606523832999</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>12671.8538735812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2076,8 +2163,11 @@
       <c r="N22">
         <v>12256.753535531199</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>12226.429802164201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2207,11 @@
       <c r="N23">
         <v>12417.370703766001</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>12422.6244896483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2158,8 +2251,11 @@
       <c r="N24">
         <v>12345.6582974023</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>12298.0488443248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2199,8 +2295,11 @@
       <c r="N25">
         <v>10989.711180971601</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>10984.5571152761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2240,8 +2339,11 @@
       <c r="N26">
         <v>10809.1172577459</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>10806.469299092299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2281,8 +2383,11 @@
       <c r="N27">
         <v>10801.415404605799</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>10796.448916175599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2322,8 +2427,11 @@
       <c r="N28">
         <v>11839.2232875196</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>11838.950627946801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2363,8 +2471,11 @@
       <c r="N29">
         <v>12654.637441839101</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>12639.110809730701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2404,8 +2515,11 @@
       <c r="N30">
         <v>12035.988835341701</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>12019.471760611401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2445,8 +2559,11 @@
       <c r="N31">
         <v>11927.118511918299</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>11886.4389757605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2486,8 +2603,11 @@
       <c r="N32">
         <v>10702.0363214672</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>10693.1016880033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2527,8 +2647,11 @@
       <c r="N33">
         <v>11109.225693927199</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>11066.9985493318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2568,8 +2691,11 @@
       <c r="N34">
         <v>12188.591605077099</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>12183.5278512196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2609,52 +2735,60 @@
       <c r="N35">
         <v>10790.3607933084</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" t="s">
+      <c r="O35">
+        <v>10747.3758751404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>11882.03046</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>11879.19477</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>11877.22905</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>11874.67808</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>11872.4619</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>11862.32048</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>11863.47572</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="4">
         <v>11868.67993</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="5">
         <v>11866.32584</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="4">
         <f>AVERAGE(K2:K35)</f>
         <v>11868.942646738276</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="5">
         <f>AVERAGE(L2:L35)</f>
         <v>11866.552335977551</v>
       </c>
-      <c r="N37">
+      <c r="M37" s="4"/>
+      <c r="N37" s="3">
         <f>AVERAGE(N2:N35)</f>
         <v>11870.88644110216</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="3">
+        <f>AVERAGE(O2:O35)</f>
+        <v>11854.971300875804</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="I38" t="s">
         <v>47</v>
       </c>

--- a/data/output/summary/Models_AIC_with_bayesian_learner.xlsx
+++ b/data/output/summary/Models_AIC_with_bayesian_learner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dddd1007/project2git/cognitive_control_model/data/output/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7489EC-A101-5844-AD40-E752D9D9EADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0754A1-606F-0640-91B2-BF3CE3102088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="840" windowWidth="23720" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models_AIC_with_bayesian_learne" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>sub</t>
   </si>
@@ -106,9 +106,6 @@
     <t>sub15_Lijian</t>
   </si>
   <si>
-    <t>sub16_ChenKaidi</t>
-  </si>
-  <si>
     <t>sub17_ChenMingyi</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>sub19_TangJianqin</t>
-  </si>
-  <si>
-    <t>sub20_GuoTao</t>
   </si>
   <si>
     <t>sub21_LiBiying</t>
@@ -198,6 +192,37 @@
   </si>
   <si>
     <t>bl_sr_stan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_blSr_2a1d1e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skewness_RT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_rate</t>
+  </si>
+  <si>
+    <t>RT_s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT_v</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_RT_v-s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号被试的RL估计非常不准，算是个特例</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,8 +398,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF383A42"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF383A42"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,12 +606,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -811,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,7 +867,13 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,7 +921,18 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -886,6 +943,1130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Models_AIC_with_bayesian_learne!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff_blSr_2a1d1e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Models_AIC_with_bayesian_learne!$Q$2:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>12.945077739699627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.151484983000046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-27.471512558200629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.580352055399999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.7599982643005205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.374894011099968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-91.72180469920022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.197917062199849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-96.502073061699775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.326269699000477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-70.672686748699562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-33.641564274501434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.979811479501222</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.403836481400504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.4160783896986686</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-60.572933342900797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.034312180099732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-12.739176418799616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-74.789237835799213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-71.482040351698743</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-17.062435675199595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-28.730384723899988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.8296009077002964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.1146938244000921</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-34.850242053198599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-51.51120026929857</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.8021493885989912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-14.276274239498889</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.633878003300197</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.261779331800426</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-58.98756878039967</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.569455140399441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB00-E24B-A236-4A7B8A7D7D6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Models_AIC_with_bayesian_learne!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff_RT_v-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Models_AIC_with_bayesian_learne!$W$2:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>14.884599999999978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.45350000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.89670000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.6797000000000253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.077600000000075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.038599999999974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-45.020899999999983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3811999999999784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.895399999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.28879999999992378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.095000000000027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.087700000000041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5396999999999821</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-38.523500000000013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.929599999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.293099999999981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.054499999999962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.051900000000046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-58.447800000000029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.325000000000045</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.6463999999999714</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-20.560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22.740800000000036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0699000000000183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-24.190599999999961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.856999999999971</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-44.636099999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-22.360299999999938</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-26.041100000000029</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4546000000000276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-18.966399999999965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47560000000004266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB00-E24B-A236-4A7B8A7D7D6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465953280"/>
+        <c:axId val="465954960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465953280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465954960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465954960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465953280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>426468</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>196300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>705555</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109752</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C510302-37DA-D34B-8448-6EFB9CC27C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,21 +2366,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="5"/>
     <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23" ht="18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,13 +2397,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1231,19 +2413,40 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:23" ht="18">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1259,13 +2462,13 @@
       <c r="E2">
         <v>11457.110650000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>11456.5033</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>11447.6378</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>11448.945110000001</v>
       </c>
       <c r="I2">
@@ -1286,8 +2489,31 @@
       <c r="O2">
         <v>11469.4483777397</v>
       </c>
+      <c r="Q2">
+        <f>O2-F2</f>
+        <v>12.945077739699627</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1.8478002</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.87218280000000004</v>
+      </c>
+      <c r="T2" s="6">
+        <v>8.3333330000000001E-3</v>
+      </c>
+      <c r="U2" s="6">
+        <v>447.3587</v>
+      </c>
+      <c r="V2" s="6">
+        <v>462.24329999999998</v>
+      </c>
+      <c r="W2">
+        <f>V2-U2</f>
+        <v>14.884599999999978</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:23" ht="18">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1303,13 +2529,13 @@
       <c r="E3">
         <v>11369.09316</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>11363.929469999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>11352.945959999999</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>11352.52886</v>
       </c>
       <c r="I3">
@@ -1330,8 +2556,31 @@
       <c r="O3">
         <v>11444.080954982999</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="0">O3-F3</f>
+        <v>80.151484983000046</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.97830969999999995</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.94977789999999995</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U3" s="6">
+        <v>429.21499999999997</v>
+      </c>
+      <c r="V3" s="6">
+        <v>458.66849999999999</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W33" si="1">V3-U3</f>
+        <v>29.45350000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:23" ht="18">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1347,13 +2596,13 @@
       <c r="E4">
         <v>11561.35457</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>11561.1798</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>11556.30076</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>11557.1021</v>
       </c>
       <c r="I4">
@@ -1374,8 +2623,31 @@
       <c r="O4">
         <v>11533.708287441799</v>
       </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>-27.471512558200629</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1.8472987999999999</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.85387950000000001</v>
+      </c>
+      <c r="T4" s="6">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>536.28899999999999</v>
+      </c>
+      <c r="V4" s="6">
+        <v>601.1857</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>64.89670000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:23" ht="18">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1391,13 +2663,13 @@
       <c r="E5">
         <v>11758.878419999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>11752.20615</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>11744.906950000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>11744.44731</v>
       </c>
       <c r="I5">
@@ -1418,8 +2690,31 @@
       <c r="O5">
         <v>11762.7865020554</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>10.580352055399999</v>
+      </c>
+      <c r="R5" s="6">
+        <v>3.6057184000000002</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.70365330000000004</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1.1458332999999999E-2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>448.03980000000001</v>
+      </c>
+      <c r="V5" s="6">
+        <v>439.36009999999999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>-8.6797000000000253</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:23" ht="18">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1435,13 +2730,13 @@
       <c r="E6">
         <v>12636.65324</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>12618.95962</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>12612.94923</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>12618.6556</v>
       </c>
       <c r="I6">
@@ -1462,8 +2757,31 @@
       <c r="O6">
         <v>12609.199621735699</v>
       </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-9.7599982643005205</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1.8733373</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.83199840000000003</v>
+      </c>
+      <c r="T6" s="6">
+        <v>5.2083329999999999E-3</v>
+      </c>
+      <c r="U6" s="6">
+        <v>526.13189999999997</v>
+      </c>
+      <c r="V6" s="6">
+        <v>567.20950000000005</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>41.077600000000075</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:23" ht="18">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1479,13 +2797,13 @@
       <c r="E7">
         <v>11665.454900000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>11665.280849999999</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>11648.328879999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>11648.301740000001</v>
       </c>
       <c r="I7">
@@ -1506,8 +2824,31 @@
       <c r="O7">
         <v>11692.655744011099</v>
       </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>27.374894011099968</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2.4365011999999999</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.81461090000000003</v>
+      </c>
+      <c r="T7" s="6">
+        <v>7.2916669999999999E-3</v>
+      </c>
+      <c r="U7" s="6">
+        <v>458.1721</v>
+      </c>
+      <c r="V7" s="6">
+        <v>449.13350000000003</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>-9.038599999999974</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:23" ht="18">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1523,13 +2864,13 @@
       <c r="E8">
         <v>12416.005139999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>12415.686659999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>12406.115309999999</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>12401.458570000001</v>
       </c>
       <c r="I8">
@@ -1550,8 +2891,31 @@
       <c r="O8">
         <v>12323.964855300799</v>
       </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>-91.72180469920022</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1.5702086</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.88293330000000003</v>
+      </c>
+      <c r="T8" s="6">
+        <v>9.7916666999999999E-2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>735.19349999999997</v>
+      </c>
+      <c r="V8" s="6">
+        <v>690.17259999999999</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>-45.020899999999983</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:23" ht="18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1567,13 +2931,13 @@
       <c r="E9">
         <v>11705.826359999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>11704.35679</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>11688.808000000001</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>11696.89738</v>
       </c>
       <c r="I9">
@@ -1594,8 +2958,31 @@
       <c r="O9">
         <v>11735.5547070622</v>
       </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>31.197917062199849</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2.6030704</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.80389690000000003</v>
+      </c>
+      <c r="T9" s="6">
+        <v>2.3958332999999998E-2</v>
+      </c>
+      <c r="U9" s="6">
+        <v>444.47500000000002</v>
+      </c>
+      <c r="V9" s="6">
+        <v>453.8562</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>9.3811999999999784</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:23" ht="18">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1611,13 +2998,13 @@
       <c r="E10">
         <v>12534.55133</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>12534.43734</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>12530.850399999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>12529.4154</v>
       </c>
       <c r="I10">
@@ -1638,8 +3025,31 @@
       <c r="O10">
         <v>12437.935266938301</v>
       </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>-96.502073061699775</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2.2822491</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.80430699999999999</v>
+      </c>
+      <c r="T10" s="6">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="U10" s="6">
+        <v>496.45519999999999</v>
+      </c>
+      <c r="V10" s="6">
+        <v>584.35059999999999</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>87.895399999999995</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:23" ht="18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1655,13 +3065,13 @@
       <c r="E11">
         <v>12631.741529999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>12631.44894</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>12624.74604</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>12625.057510000001</v>
       </c>
       <c r="I11">
@@ -1682,8 +3092,31 @@
       <c r="O11">
         <v>12648.775209699001</v>
       </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>17.326269699000477</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2.6995851000000002</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.71434149999999996</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2.0833330000000001E-3</v>
+      </c>
+      <c r="U11" s="6">
+        <v>611.03409999999997</v>
+      </c>
+      <c r="V11" s="6">
+        <v>610.74530000000004</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>-0.28879999999992378</v>
+      </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:23" ht="18">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1699,13 +3132,13 @@
       <c r="E12">
         <v>12941.39532</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>12942.140649999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>12934.65285</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>12933.44599</v>
       </c>
       <c r="I12">
@@ -1726,8 +3159,31 @@
       <c r="O12">
         <v>12871.4679632513</v>
       </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>-70.672686748699562</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1.6860601</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.84910719999999995</v>
+      </c>
+      <c r="T12" s="6">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="U12" s="6">
+        <v>612.8021</v>
+      </c>
+      <c r="V12" s="6">
+        <v>533.70709999999997</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>-79.095000000000027</v>
+      </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:23" ht="18">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1743,13 +3199,13 @@
       <c r="E13">
         <v>12852.416520000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>12849.510700000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>12825.97191</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>12841.95883</v>
       </c>
       <c r="I13">
@@ -1770,8 +3226,31 @@
       <c r="O13">
         <v>12815.869135725499</v>
       </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>-33.641564274501434</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1.4840428999999999</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0.87383359999999999</v>
+      </c>
+      <c r="T13" s="6">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="U13" s="6">
+        <v>543.4117</v>
+      </c>
+      <c r="V13" s="6">
+        <v>607.49940000000004</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>64.087700000000041</v>
+      </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:23" ht="18">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1787,13 +3266,13 @@
       <c r="E14">
         <v>11616.14003</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>11616.1122</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>11613.04055</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>11609.28939</v>
       </c>
       <c r="I14">
@@ -1814,8 +3293,31 @@
       <c r="O14">
         <v>11636.092011479501</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>19.979811479501222</v>
+      </c>
+      <c r="R14" s="6">
+        <v>3.9421257000000001</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0.69209030000000005</v>
+      </c>
+      <c r="T14" s="6">
+        <v>1.1458332999999999E-2</v>
+      </c>
+      <c r="U14" s="6">
+        <v>452.81189999999998</v>
+      </c>
+      <c r="V14" s="6">
+        <v>448.2722</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>-4.5396999999999821</v>
+      </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:23" ht="18">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1831,13 +3333,13 @@
       <c r="E15">
         <v>11938.421780000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>11936.92762</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>11928.46364</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>11928.9071</v>
       </c>
       <c r="I15">
@@ -1858,952 +3360,1319 @@
       <c r="O15">
         <v>11952.331456481401</v>
       </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>15.403836481400504</v>
+      </c>
+      <c r="R15" s="6">
+        <v>2.8629183</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.76613989999999998</v>
+      </c>
+      <c r="T15" s="6">
+        <v>8.3333330000000001E-3</v>
+      </c>
+      <c r="U15" s="6">
+        <v>507.4325</v>
+      </c>
+      <c r="V15" s="6">
+        <v>468.90899999999999</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>-38.523500000000013</v>
+      </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:23" ht="18">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>12065.349560000001</v>
+        <v>12120.074409999999</v>
       </c>
       <c r="C16">
-        <v>12063.31646</v>
+        <v>12120.051170000001</v>
       </c>
       <c r="D16">
-        <v>12065.357840000001</v>
+        <v>12119.733120000001</v>
       </c>
       <c r="E16">
-        <v>12063.34477</v>
-      </c>
-      <c r="F16">
-        <v>12063.42546</v>
-      </c>
-      <c r="G16">
-        <v>12052.76354</v>
-      </c>
-      <c r="H16">
-        <v>12049.064399999999</v>
+        <v>12118.718070000001</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12115.872149999999</v>
+      </c>
+      <c r="G16" s="5">
+        <v>12109.62631</v>
+      </c>
+      <c r="H16" s="5">
+        <v>12104.99223</v>
       </c>
       <c r="I16">
-        <v>12106.93799</v>
+        <v>12125.82944</v>
       </c>
       <c r="J16">
-        <v>12107.35295</v>
+        <v>12125.198990000001</v>
       </c>
       <c r="K16">
-        <v>12107.857701324499</v>
+        <v>12125.8614633002</v>
       </c>
       <c r="L16">
-        <v>12106.812073151799</v>
+        <v>12125.173024714</v>
       </c>
       <c r="N16">
-        <v>12106.094855146101</v>
+        <v>12125.862620932299</v>
       </c>
       <c r="O16">
-        <v>12064.6440385361</v>
+        <v>12111.456071610301</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>-4.4160783896986686</v>
+      </c>
+      <c r="R16" s="6">
+        <v>2.0736715999999999</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.81423060000000003</v>
+      </c>
+      <c r="T16" s="6">
+        <v>2.0833332999999999E-2</v>
+      </c>
+      <c r="U16" s="6">
+        <v>421.71519999999998</v>
+      </c>
+      <c r="V16" s="6">
+        <v>470.64479999999998</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>48.929599999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:25" ht="18">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>12120.074409999999</v>
+        <v>10588.72186</v>
       </c>
       <c r="C17">
-        <v>12120.051170000001</v>
+        <v>10573.30991</v>
       </c>
       <c r="D17">
-        <v>12119.733120000001</v>
+        <v>10608.45708</v>
       </c>
       <c r="E17">
-        <v>12118.718070000001</v>
-      </c>
-      <c r="F17">
-        <v>12115.872149999999</v>
-      </c>
-      <c r="G17">
-        <v>12109.62631</v>
-      </c>
-      <c r="H17">
-        <v>12104.99223</v>
+        <v>10586.523020000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10579.034170000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10529.81028</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10573.08654</v>
       </c>
       <c r="I17">
-        <v>12125.82944</v>
+        <v>10523.859270000001</v>
       </c>
       <c r="J17">
-        <v>12125.198990000001</v>
+        <v>10504.9414</v>
       </c>
       <c r="K17">
-        <v>12125.8614633002</v>
+        <v>10526.843151225899</v>
       </c>
       <c r="L17">
-        <v>12125.173024714</v>
+        <v>10504.688175261101</v>
       </c>
       <c r="N17">
-        <v>12125.862620932299</v>
+        <v>10531.0519892676</v>
       </c>
       <c r="O17">
-        <v>12111.456071610301</v>
+        <v>10518.4612366571</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>-60.572933342900797</v>
+      </c>
+      <c r="R17" s="6">
+        <v>2.2396628000000001</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.88975029999999999</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>392.8073</v>
+      </c>
+      <c r="V17" s="6">
+        <v>413.10039999999998</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>20.293099999999981</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:25" ht="18">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>10588.72186</v>
+        <v>12185.928389999999</v>
       </c>
       <c r="C18">
-        <v>10573.30991</v>
+        <v>12185.556119999999</v>
       </c>
       <c r="D18">
-        <v>10608.45708</v>
+        <v>12183.97287</v>
       </c>
       <c r="E18">
-        <v>10586.523020000001</v>
-      </c>
-      <c r="F18">
-        <v>10579.034170000001</v>
-      </c>
-      <c r="G18">
-        <v>10529.81028</v>
-      </c>
-      <c r="H18">
-        <v>10573.08654</v>
+        <v>12183.967360000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>12183.94807</v>
+      </c>
+      <c r="G18" s="5">
+        <v>12173.852639999999</v>
+      </c>
+      <c r="H18" s="5">
+        <v>12174.278749999999</v>
       </c>
       <c r="I18">
-        <v>10523.859270000001</v>
+        <v>12216.49236</v>
       </c>
       <c r="J18">
-        <v>10504.9414</v>
+        <v>12215.133239999999</v>
       </c>
       <c r="K18">
-        <v>10526.843151225899</v>
+        <v>12216.4373846176</v>
       </c>
       <c r="L18">
-        <v>10504.688175261101</v>
+        <v>12215.42144156</v>
       </c>
       <c r="N18">
-        <v>10531.0519892676</v>
+        <v>12216.037226074999</v>
       </c>
       <c r="O18">
-        <v>10518.4612366571</v>
+        <v>12203.9823821801</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>20.034312180099732</v>
+      </c>
+      <c r="R18" s="6">
+        <v>2.5459054999999999</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.72364490000000004</v>
+      </c>
+      <c r="T18" s="6">
+        <v>4.8958333E-2</v>
+      </c>
+      <c r="U18" s="6">
+        <v>490.12369999999999</v>
+      </c>
+      <c r="V18" s="6">
+        <v>522.17819999999995</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>32.054499999999962</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:25" ht="18">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>12185.928389999999</v>
+        <v>12694.811</v>
       </c>
       <c r="C19">
-        <v>12185.556119999999</v>
+        <v>12691.42215</v>
       </c>
       <c r="D19">
-        <v>12183.97287</v>
+        <v>12702.66941</v>
       </c>
       <c r="E19">
-        <v>12183.967360000001</v>
-      </c>
-      <c r="F19">
-        <v>12183.94807</v>
-      </c>
-      <c r="G19">
-        <v>12173.852639999999</v>
-      </c>
-      <c r="H19">
-        <v>12174.278749999999</v>
+        <v>12701.50078</v>
+      </c>
+      <c r="F19" s="5">
+        <v>12684.593049999999</v>
+      </c>
+      <c r="G19" s="5">
+        <v>12684.433800000001</v>
+      </c>
+      <c r="H19" s="5">
+        <v>12674.770500000001</v>
       </c>
       <c r="I19">
-        <v>12216.49236</v>
+        <v>12686.19966</v>
       </c>
       <c r="J19">
-        <v>12215.133239999999</v>
+        <v>12670.92944</v>
       </c>
       <c r="K19">
-        <v>12216.4373846176</v>
+        <v>12686.157812687499</v>
       </c>
       <c r="L19">
-        <v>12215.42144156</v>
+        <v>12670.8085790326</v>
       </c>
       <c r="N19">
-        <v>12216.037226074999</v>
+        <v>12685.606523832999</v>
       </c>
       <c r="O19">
-        <v>12203.9823821801</v>
+        <v>12671.8538735812</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>-12.739176418799616</v>
+      </c>
+      <c r="R19" s="6">
+        <v>2.5256159999999999</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.696573</v>
+      </c>
+      <c r="T19" s="6">
+        <v>2.0833332999999999E-2</v>
+      </c>
+      <c r="U19" s="6">
+        <v>538.37260000000003</v>
+      </c>
+      <c r="V19" s="6">
+        <v>459.32069999999999</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>-79.051900000000046</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:25" ht="18">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>12038.14832</v>
+        <v>12314.98055</v>
       </c>
       <c r="C20">
-        <v>12037.144979999999</v>
+        <v>12313.53888</v>
       </c>
       <c r="D20">
-        <v>12038.108</v>
+        <v>12305.755730000001</v>
       </c>
       <c r="E20">
-        <v>12035.65813</v>
-      </c>
-      <c r="F20">
-        <v>12035.626190000001</v>
-      </c>
-      <c r="G20">
-        <v>12022.016100000001</v>
-      </c>
-      <c r="H20">
-        <v>12022.751410000001</v>
+        <v>12304.59044</v>
+      </c>
+      <c r="F20" s="5">
+        <v>12301.21904</v>
+      </c>
+      <c r="G20" s="5">
+        <v>12298.403410000001</v>
+      </c>
+      <c r="H20" s="5">
+        <v>12298.33258</v>
       </c>
       <c r="I20">
-        <v>11953.488799999999</v>
+        <v>12255.58323</v>
       </c>
       <c r="J20">
-        <v>11942.66129</v>
+        <v>12246.2084</v>
       </c>
       <c r="K20">
-        <v>11952.9293840233</v>
+        <v>12256.076373527299</v>
       </c>
       <c r="L20">
-        <v>11942.693174910801</v>
+        <v>12246.767294441999</v>
       </c>
       <c r="N20">
-        <v>11954.397742098399</v>
+        <v>12256.753535531199</v>
       </c>
       <c r="O20">
-        <v>11955.201928882099</v>
+        <v>12226.429802164201</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>-74.789237835799213</v>
+      </c>
+      <c r="R20" s="6">
+        <v>2.0596489</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0.78659120000000005</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1.4583333E-2</v>
+      </c>
+      <c r="U20" s="6">
+        <v>633.20410000000004</v>
+      </c>
+      <c r="V20" s="6">
+        <v>574.75630000000001</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>-58.447800000000029</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:25" ht="18">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>12694.811</v>
+        <v>12499.05205</v>
       </c>
       <c r="C21">
-        <v>12691.42215</v>
+        <v>12498.166660000001</v>
       </c>
       <c r="D21">
-        <v>12702.66941</v>
+        <v>12498.294330000001</v>
       </c>
       <c r="E21">
-        <v>12701.50078</v>
-      </c>
-      <c r="F21">
-        <v>12684.593049999999</v>
-      </c>
-      <c r="G21">
-        <v>12684.433800000001</v>
-      </c>
-      <c r="H21">
-        <v>12674.770500000001</v>
+        <v>12495.18492</v>
+      </c>
+      <c r="F21" s="5">
+        <v>12494.106529999999</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12488.131729999999</v>
+      </c>
+      <c r="H21" s="5">
+        <v>12487.75922</v>
       </c>
       <c r="I21">
-        <v>12686.19966</v>
+        <v>12423.369919999999</v>
       </c>
       <c r="J21">
-        <v>12670.92944</v>
+        <v>12414.49807</v>
       </c>
       <c r="K21">
-        <v>12686.157812687499</v>
+        <v>12423.442692824199</v>
       </c>
       <c r="L21">
-        <v>12670.8085790326</v>
+        <v>12414.173829393099</v>
       </c>
       <c r="N21">
-        <v>12685.606523832999</v>
+        <v>12417.370703766001</v>
       </c>
       <c r="O21">
-        <v>12671.8538735812</v>
+        <v>12422.6244896483</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>-71.482040351698743</v>
+      </c>
+      <c r="R21" s="6">
+        <v>2.0452591</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0.82862740000000001</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U21" s="6">
+        <v>587.4067</v>
+      </c>
+      <c r="V21" s="6">
+        <v>647.73170000000005</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>60.325000000000045</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:25" ht="18">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>12314.98055</v>
+        <v>12323.16849</v>
       </c>
       <c r="C22">
-        <v>12313.53888</v>
+        <v>12320.672860000001</v>
       </c>
       <c r="D22">
-        <v>12305.755730000001</v>
+        <v>12319.04372</v>
       </c>
       <c r="E22">
-        <v>12304.59044</v>
-      </c>
-      <c r="F22">
-        <v>12301.21904</v>
-      </c>
-      <c r="G22">
-        <v>12298.403410000001</v>
-      </c>
-      <c r="H22">
-        <v>12298.33258</v>
+        <v>12316.213019999999</v>
+      </c>
+      <c r="F22" s="5">
+        <v>12315.111279999999</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12302.956539999999</v>
+      </c>
+      <c r="H22" s="5">
+        <v>12303.22724</v>
       </c>
       <c r="I22">
-        <v>12255.58323</v>
+        <v>12341.39551</v>
       </c>
       <c r="J22">
-        <v>12246.2084</v>
+        <v>12327.549139999999</v>
       </c>
       <c r="K22">
-        <v>12256.076373527299</v>
+        <v>12343.8569151787</v>
       </c>
       <c r="L22">
-        <v>12246.767294441999</v>
+        <v>12330.8961220904</v>
       </c>
       <c r="N22">
-        <v>12256.753535531199</v>
+        <v>12345.6582974023</v>
       </c>
       <c r="O22">
-        <v>12226.429802164201</v>
+        <v>12298.0488443248</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>-17.062435675199595</v>
+      </c>
+      <c r="R22" s="6">
+        <v>2.1247880000000001</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0.83000180000000001</v>
+      </c>
+      <c r="T22" s="6">
+        <v>1.9791666999999999E-2</v>
+      </c>
+      <c r="U22" s="6">
+        <v>493.28829999999999</v>
+      </c>
+      <c r="V22" s="6">
+        <v>491.64190000000002</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>-1.6463999999999714</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:25" ht="18">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>12499.05205</v>
+        <v>11022.77464</v>
       </c>
       <c r="C23">
-        <v>12498.166660000001</v>
+        <v>11021.5244</v>
       </c>
       <c r="D23">
-        <v>12498.294330000001</v>
+        <v>11016.32669</v>
       </c>
       <c r="E23">
-        <v>12495.18492</v>
-      </c>
-      <c r="F23">
-        <v>12494.106529999999</v>
-      </c>
-      <c r="G23">
-        <v>12488.131729999999</v>
-      </c>
-      <c r="H23">
-        <v>12487.75922</v>
+        <v>11014.06544</v>
+      </c>
+      <c r="F23" s="5">
+        <v>11013.2875</v>
+      </c>
+      <c r="G23" s="5">
+        <v>11001.943499999999</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10999.50548</v>
       </c>
       <c r="I23">
-        <v>12423.369919999999</v>
+        <v>10982.46127</v>
       </c>
       <c r="J23">
-        <v>12414.49807</v>
+        <v>10982.757460000001</v>
       </c>
       <c r="K23">
-        <v>12423.442692824199</v>
+        <v>10982.757658356801</v>
       </c>
       <c r="L23">
-        <v>12414.173829393099</v>
+        <v>10982.303452923699</v>
       </c>
       <c r="N23">
-        <v>12417.370703766001</v>
+        <v>10989.711180971601</v>
       </c>
       <c r="O23">
-        <v>12422.6244896483</v>
+        <v>10984.5571152761</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>-28.730384723899988</v>
+      </c>
+      <c r="R23" s="6">
+        <v>1.7490745000000001</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0.90070150000000004</v>
+      </c>
+      <c r="T23" s="6">
+        <v>4.1666669999999998E-3</v>
+      </c>
+      <c r="U23" s="6">
+        <v>454.61790000000002</v>
+      </c>
+      <c r="V23" s="6">
+        <v>434.05790000000002</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>-20.560000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:25" ht="18">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>12323.16849</v>
+        <v>10817.410910000001</v>
       </c>
       <c r="C24">
-        <v>12320.672860000001</v>
+        <v>10813.198969999999</v>
       </c>
       <c r="D24">
-        <v>12319.04372</v>
+        <v>10809.38638</v>
       </c>
       <c r="E24">
-        <v>12316.213019999999</v>
-      </c>
-      <c r="F24">
-        <v>12315.111279999999</v>
-      </c>
-      <c r="G24">
-        <v>12302.956539999999</v>
-      </c>
-      <c r="H24">
-        <v>12303.22724</v>
+        <v>10808.40445</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10808.2989</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10803.965190000001</v>
+      </c>
+      <c r="H24" s="5">
+        <v>10804.104880000001</v>
       </c>
       <c r="I24">
-        <v>12341.39551</v>
+        <v>10805.235350000001</v>
       </c>
       <c r="J24">
-        <v>12327.549139999999</v>
+        <v>10809.084699999999</v>
       </c>
       <c r="K24">
-        <v>12343.8569151787</v>
+        <v>10805.9193979135</v>
       </c>
       <c r="L24">
-        <v>12330.8961220904</v>
+        <v>10809.083037402301</v>
       </c>
       <c r="N24">
-        <v>12345.6582974023</v>
+        <v>10809.1172577459</v>
       </c>
       <c r="O24">
-        <v>12298.0488443248</v>
+        <v>10806.469299092299</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>-1.8296009077002964</v>
+      </c>
+      <c r="R24" s="6">
+        <v>3.260005</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0.68781669999999995</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1.1458332999999999E-2</v>
+      </c>
+      <c r="U24" s="6">
+        <v>482.91320000000002</v>
+      </c>
+      <c r="V24" s="6">
+        <v>460.17239999999998</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>-22.740800000000036</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:25" ht="18">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>11022.77464</v>
+        <v>10800.24985</v>
       </c>
       <c r="C25">
-        <v>11021.5244</v>
+        <v>10797.82964</v>
       </c>
       <c r="D25">
-        <v>11016.32669</v>
+        <v>10800.25837</v>
       </c>
       <c r="E25">
-        <v>11014.06544</v>
-      </c>
-      <c r="F25">
-        <v>11013.2875</v>
-      </c>
-      <c r="G25">
-        <v>11001.943499999999</v>
-      </c>
-      <c r="H25">
-        <v>10999.50548</v>
+        <v>10798.52147</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10798.563609999999</v>
+      </c>
+      <c r="G25" s="5">
+        <v>10787.77981</v>
+      </c>
+      <c r="H25" s="5">
+        <v>10779.81899</v>
       </c>
       <c r="I25">
-        <v>10982.46127</v>
+        <v>10801.77951</v>
       </c>
       <c r="J25">
-        <v>10982.757460000001</v>
+        <v>10784.056479999999</v>
       </c>
       <c r="K25">
-        <v>10982.757658356801</v>
+        <v>10801.763378313201</v>
       </c>
       <c r="L25">
-        <v>10982.303452923699</v>
+        <v>10786.3245366355</v>
       </c>
       <c r="N25">
-        <v>10989.711180971601</v>
+        <v>10801.415404605799</v>
       </c>
       <c r="O25">
-        <v>10984.5571152761</v>
+        <v>10796.448916175599</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>-2.1146938244000921</v>
+      </c>
+      <c r="R25" s="6">
+        <v>2.5230252000000002</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0.82214279999999995</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>409.81229999999999</v>
+      </c>
+      <c r="V25" s="6">
+        <v>413.88220000000001</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>4.0699000000000183</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:25" ht="18">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>10817.410910000001</v>
+        <v>11869.83394</v>
       </c>
       <c r="C26">
-        <v>10813.198969999999</v>
+        <v>11870.14392</v>
       </c>
       <c r="D26">
-        <v>10809.38638</v>
+        <v>11874.58064</v>
       </c>
       <c r="E26">
-        <v>10808.40445</v>
-      </c>
-      <c r="F26">
-        <v>10808.2989</v>
-      </c>
-      <c r="G26">
-        <v>10803.965190000001</v>
-      </c>
-      <c r="H26">
-        <v>10804.104880000001</v>
+        <v>11873.486269999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>11873.800869999999</v>
+      </c>
+      <c r="G26" s="5">
+        <v>11866.946019999999</v>
+      </c>
+      <c r="H26" s="5">
+        <v>11867.33099</v>
       </c>
       <c r="I26">
-        <v>10805.235350000001</v>
+        <v>11840.16727</v>
       </c>
       <c r="J26">
-        <v>10809.084699999999</v>
+        <v>11835.80636</v>
       </c>
       <c r="K26">
-        <v>10805.9193979135</v>
+        <v>11840.1866016971</v>
       </c>
       <c r="L26">
-        <v>10809.083037402301</v>
+        <v>11835.676757503399</v>
       </c>
       <c r="N26">
-        <v>10809.1172577459</v>
+        <v>11839.2232875196</v>
       </c>
       <c r="O26">
-        <v>10806.469299092299</v>
+        <v>11838.950627946801</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>-34.850242053198599</v>
+      </c>
+      <c r="R26" s="6">
+        <v>2.7313852000000001</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0.80611460000000001</v>
+      </c>
+      <c r="T26" s="6">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="U26" s="6">
+        <v>503.90539999999999</v>
+      </c>
+      <c r="V26" s="6">
+        <v>479.71480000000003</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>-24.190599999999961</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:25" ht="18">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>10800.24985</v>
+        <v>12702.348330000001</v>
       </c>
       <c r="C27">
-        <v>10797.82964</v>
+        <v>12698.79443</v>
       </c>
       <c r="D27">
-        <v>10800.25837</v>
+        <v>12695.035910000001</v>
       </c>
       <c r="E27">
-        <v>10798.52147</v>
-      </c>
-      <c r="F27">
-        <v>10798.563609999999</v>
-      </c>
-      <c r="G27">
-        <v>10787.77981</v>
-      </c>
-      <c r="H27">
-        <v>10779.81899</v>
+        <v>12690.76391</v>
+      </c>
+      <c r="F27" s="5">
+        <v>12690.622009999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>12684.09971</v>
+      </c>
+      <c r="H27" s="5">
+        <v>12677.794040000001</v>
       </c>
       <c r="I27">
-        <v>10801.77951</v>
+        <v>12656.11652</v>
       </c>
       <c r="J27">
-        <v>10784.056479999999</v>
+        <v>12655.213729999999</v>
       </c>
       <c r="K27">
-        <v>10801.763378313201</v>
+        <v>12656.0664934665</v>
       </c>
       <c r="L27">
-        <v>10786.3245366355</v>
+        <v>12655.307698803501</v>
       </c>
       <c r="N27">
-        <v>10801.415404605799</v>
+        <v>12654.637441839101</v>
       </c>
       <c r="O27">
-        <v>10796.448916175599</v>
+        <v>12639.110809730701</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>-51.51120026929857</v>
+      </c>
+      <c r="R27" s="6">
+        <v>1.6731235</v>
+      </c>
+      <c r="S27" s="6">
+        <v>0.86099250000000005</v>
+      </c>
+      <c r="T27" s="6">
+        <v>4.4791667E-2</v>
+      </c>
+      <c r="U27" s="6">
+        <v>614.77890000000002</v>
+      </c>
+      <c r="V27" s="6">
+        <v>632.63589999999999</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>17.856999999999971</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:25" ht="18">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>11869.83394</v>
+        <v>12034.711429999999</v>
       </c>
       <c r="C28">
-        <v>11870.14392</v>
+        <v>12030.029259999999</v>
       </c>
       <c r="D28">
-        <v>11874.58064</v>
+        <v>12032.56021</v>
       </c>
       <c r="E28">
-        <v>11873.486269999999</v>
-      </c>
-      <c r="F28">
-        <v>11873.800869999999</v>
-      </c>
-      <c r="G28">
-        <v>11866.946019999999</v>
-      </c>
-      <c r="H28">
-        <v>11867.33099</v>
+        <v>12022.3032</v>
+      </c>
+      <c r="F28" s="5">
+        <v>12022.27391</v>
+      </c>
+      <c r="G28" s="5">
+        <v>12012.902770000001</v>
+      </c>
+      <c r="H28" s="5">
+        <v>12010.34492</v>
       </c>
       <c r="I28">
-        <v>11840.16727</v>
+        <v>12036.038039999999</v>
       </c>
       <c r="J28">
-        <v>11835.80636</v>
+        <v>12033.11973</v>
       </c>
       <c r="K28">
-        <v>11840.1866016971</v>
+        <v>12035.9665194066</v>
       </c>
       <c r="L28">
-        <v>11835.676757503399</v>
+        <v>12033.4713552103</v>
       </c>
       <c r="N28">
-        <v>11839.2232875196</v>
+        <v>12035.988835341701</v>
       </c>
       <c r="O28">
-        <v>11838.950627946801</v>
+        <v>12019.471760611401</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>-2.8021493885989912</v>
+      </c>
+      <c r="R28" s="6">
+        <v>3.2194794</v>
+      </c>
+      <c r="S28" s="6">
+        <v>0.70383099999999998</v>
+      </c>
+      <c r="T28" s="6">
+        <v>2.0833330000000001E-3</v>
+      </c>
+      <c r="U28" s="6">
+        <v>485.63400000000001</v>
+      </c>
+      <c r="V28" s="6">
+        <v>440.99790000000002</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>-44.636099999999999</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:25" ht="18">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>12702.348330000001</v>
+        <v>11912.04615</v>
       </c>
       <c r="C29">
-        <v>12698.79443</v>
+        <v>11911.288430000001</v>
       </c>
       <c r="D29">
-        <v>12695.035910000001</v>
+        <v>11900.95858</v>
       </c>
       <c r="E29">
-        <v>12690.76391</v>
-      </c>
-      <c r="F29">
-        <v>12690.622009999999</v>
-      </c>
-      <c r="G29">
-        <v>12684.09971</v>
-      </c>
-      <c r="H29">
-        <v>12677.794040000001</v>
+        <v>11900.83777</v>
+      </c>
+      <c r="F29" s="5">
+        <v>11900.715249999999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>11888.17785</v>
+      </c>
+      <c r="H29" s="5">
+        <v>11890.04574</v>
       </c>
       <c r="I29">
-        <v>12656.11652</v>
+        <v>11927.09777</v>
       </c>
       <c r="J29">
-        <v>12655.213729999999</v>
+        <v>11925.553250000001</v>
       </c>
       <c r="K29">
-        <v>12656.0664934665</v>
+        <v>11927.007155102499</v>
       </c>
       <c r="L29">
-        <v>12655.307698803501</v>
+        <v>11925.9516410425</v>
       </c>
       <c r="N29">
-        <v>12654.637441839101</v>
+        <v>11927.118511918299</v>
       </c>
       <c r="O29">
-        <v>12639.110809730701</v>
+        <v>11886.4389757605</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>-14.276274239498889</v>
+      </c>
+      <c r="R29" s="6">
+        <v>2.3860806000000001</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0.83016009999999996</v>
+      </c>
+      <c r="T29" s="6">
+        <v>2.0833330000000001E-3</v>
+      </c>
+      <c r="U29" s="6">
+        <v>519.94179999999994</v>
+      </c>
+      <c r="V29" s="6">
+        <v>497.58150000000001</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>-22.360299999999938</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:25" ht="18">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>12034.711429999999</v>
+        <v>10688.44564</v>
       </c>
       <c r="C30">
-        <v>12030.029259999999</v>
+        <v>10681.271479999999</v>
       </c>
       <c r="D30">
-        <v>12032.56021</v>
+        <v>10686.82007</v>
       </c>
       <c r="E30">
-        <v>12022.3032</v>
-      </c>
-      <c r="F30">
-        <v>12022.27391</v>
-      </c>
-      <c r="G30">
-        <v>12012.902770000001</v>
-      </c>
-      <c r="H30">
-        <v>12010.34492</v>
+        <v>10681.55163</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10681.46781</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10674.831990000001</v>
+      </c>
+      <c r="H30" s="5">
+        <v>10674.25661</v>
       </c>
       <c r="I30">
-        <v>12036.038039999999</v>
+        <v>10703.261640000001</v>
       </c>
       <c r="J30">
-        <v>12033.11973</v>
+        <v>10697.61075</v>
       </c>
       <c r="K30">
-        <v>12035.9665194066</v>
+        <v>10703.447532571499</v>
       </c>
       <c r="L30">
-        <v>12033.4713552103</v>
+        <v>10697.79707339</v>
       </c>
       <c r="N30">
-        <v>12035.988835341701</v>
+        <v>10702.0363214672</v>
       </c>
       <c r="O30">
-        <v>12019.471760611401</v>
+        <v>10693.1016880033</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>11.633878003300197</v>
+      </c>
+      <c r="R30" s="6">
+        <v>2.7255555999999999</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0.74613629999999997</v>
+      </c>
+      <c r="T30" s="6">
+        <v>1.1458332999999999E-2</v>
+      </c>
+      <c r="U30" s="6">
+        <v>571.87689999999998</v>
+      </c>
+      <c r="V30" s="6">
+        <v>545.83579999999995</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>-26.041100000000029</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:25" ht="18">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>11912.04615</v>
+        <v>11074.08265</v>
       </c>
       <c r="C31">
-        <v>11911.288430000001</v>
+        <v>11071.734539999999</v>
       </c>
       <c r="D31">
-        <v>11900.95858</v>
+        <v>11071.599969999999</v>
       </c>
       <c r="E31">
-        <v>11900.83777</v>
-      </c>
-      <c r="F31">
-        <v>11900.715249999999</v>
-      </c>
-      <c r="G31">
-        <v>11888.17785</v>
-      </c>
-      <c r="H31">
-        <v>11890.04574</v>
+        <v>11070.089449999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>11065.73677</v>
+      </c>
+      <c r="G31" s="5">
+        <v>11057.47661</v>
+      </c>
+      <c r="H31" s="5">
+        <v>11059.468140000001</v>
       </c>
       <c r="I31">
-        <v>11927.09777</v>
+        <v>11098.27202</v>
       </c>
       <c r="J31">
-        <v>11925.553250000001</v>
+        <v>11115.6697</v>
       </c>
       <c r="K31">
-        <v>11927.007155102499</v>
+        <v>11100.8194899269</v>
       </c>
       <c r="L31">
-        <v>11925.9516410425</v>
+        <v>11114.4920840334</v>
       </c>
       <c r="N31">
-        <v>11927.118511918299</v>
+        <v>11109.225693927199</v>
       </c>
       <c r="O31">
-        <v>11886.4389757605</v>
+        <v>11066.9985493318</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1.261779331800426</v>
+      </c>
+      <c r="R31" s="6">
+        <v>2.7542198999999998</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0.7851051</v>
+      </c>
+      <c r="T31" s="6">
+        <v>3.6458333000000002E-2</v>
+      </c>
+      <c r="U31" s="6">
+        <v>379.4819</v>
+      </c>
+      <c r="V31" s="6">
+        <v>383.93650000000002</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>4.4546000000000276</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:25" ht="18">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>10688.44564</v>
+        <v>12243.331539999999</v>
       </c>
       <c r="C32">
-        <v>10681.271479999999</v>
+        <v>12242.738160000001</v>
       </c>
       <c r="D32">
-        <v>10686.82007</v>
+        <v>12242.734700000001</v>
       </c>
       <c r="E32">
-        <v>10681.55163</v>
-      </c>
-      <c r="F32">
-        <v>10681.46781</v>
-      </c>
-      <c r="G32">
-        <v>10674.831990000001</v>
-      </c>
-      <c r="H32">
-        <v>10674.25661</v>
+        <v>12242.60276</v>
+      </c>
+      <c r="F32" s="5">
+        <v>12242.51542</v>
+      </c>
+      <c r="G32" s="5">
+        <v>12233.68599</v>
+      </c>
+      <c r="H32" s="5">
+        <v>12234.1479</v>
       </c>
       <c r="I32">
-        <v>10703.261640000001</v>
+        <v>12191.731239999999</v>
       </c>
       <c r="J32">
-        <v>10697.61075</v>
+        <v>12191.945320000001</v>
       </c>
       <c r="K32">
-        <v>10703.447532571499</v>
+        <v>12191.874173479</v>
       </c>
       <c r="L32">
-        <v>10697.79707339</v>
+        <v>12191.9493365542</v>
       </c>
       <c r="N32">
-        <v>10702.0363214672</v>
+        <v>12188.591605077099</v>
       </c>
       <c r="O32">
-        <v>10693.1016880033</v>
+        <v>12183.5278512196</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>-58.98756878039967</v>
+      </c>
+      <c r="R32" s="6">
+        <v>2.6227154000000001</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.73139419999999999</v>
+      </c>
+      <c r="T32" s="6">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="U32" s="6">
+        <v>520.56359999999995</v>
+      </c>
+      <c r="V32" s="6">
+        <v>501.59719999999999</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>-18.966399999999965</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:23" ht="18">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>11074.08265</v>
+        <v>10749.375910000001</v>
       </c>
       <c r="C33">
-        <v>11071.734539999999</v>
+        <v>10745.985000000001</v>
       </c>
       <c r="D33">
-        <v>11071.599969999999</v>
+        <v>10749.392379999999</v>
       </c>
       <c r="E33">
-        <v>11070.089449999999</v>
-      </c>
-      <c r="F33">
-        <v>11065.73677</v>
-      </c>
-      <c r="G33">
-        <v>11057.47661</v>
-      </c>
-      <c r="H33">
-        <v>11059.468140000001</v>
+        <v>10745.68483</v>
+      </c>
+      <c r="F33" s="5">
+        <v>10744.806420000001</v>
+      </c>
+      <c r="G33" s="5">
+        <v>10729.37421</v>
+      </c>
+      <c r="H33" s="5">
+        <v>10736.68312</v>
       </c>
       <c r="I33">
-        <v>11098.27202</v>
+        <v>10792.16113</v>
       </c>
       <c r="J33">
-        <v>11115.6697</v>
+        <v>10794.428980000001</v>
       </c>
       <c r="K33">
-        <v>11100.8194899269</v>
+        <v>10791.991378028801</v>
       </c>
       <c r="L33">
-        <v>11114.4920840334</v>
+        <v>10794.4402787323</v>
       </c>
       <c r="N33">
-        <v>11109.225693927199</v>
+        <v>10790.3607933084</v>
       </c>
       <c r="O33">
-        <v>11066.9985493318</v>
+        <v>10747.3758751404</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>2.569455140399441</v>
+      </c>
+      <c r="R33" s="6">
+        <v>2.1463744999999999</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0.87498969999999998</v>
+      </c>
+      <c r="T33" s="6">
+        <v>3.2291667000000003E-2</v>
+      </c>
+      <c r="U33" s="6">
+        <v>395.69189999999998</v>
+      </c>
+      <c r="V33" s="6">
+        <v>396.16750000000002</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>0.47560000000004266</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:23">
+      <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B34">
-        <v>12243.331539999999</v>
-      </c>
-      <c r="C34">
-        <v>12242.738160000001</v>
-      </c>
-      <c r="D34">
-        <v>12242.734700000001</v>
-      </c>
-      <c r="E34">
-        <v>12242.60276</v>
-      </c>
-      <c r="F34">
-        <v>12242.51542</v>
-      </c>
-      <c r="G34">
-        <v>12233.68599</v>
-      </c>
-      <c r="H34">
-        <v>12234.1479</v>
-      </c>
-      <c r="I34">
-        <v>12191.731239999999</v>
-      </c>
-      <c r="J34">
-        <v>12191.945320000001</v>
-      </c>
-      <c r="K34">
-        <v>12191.874173479</v>
-      </c>
-      <c r="L34">
-        <v>12191.9493365542</v>
-      </c>
-      <c r="N34">
-        <v>12188.591605077099</v>
-      </c>
-      <c r="O34">
-        <v>12183.5278512196</v>
+      <c r="B35" s="3">
+        <f t="shared" ref="B35:L35" si="2">AVERAGE(B2:B33)</f>
+        <v>11871.423054062499</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="2"/>
+        <v>11868.505024374999</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="2"/>
+        <v>11866.322556562496</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="2"/>
+        <v>11863.751616874997</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
+        <v>11861.3954015625</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="2"/>
+        <v>11851.378644999997</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="2"/>
+        <v>11852.698711249997</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>11858.584089374997</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="2"/>
+        <v>11856.408258125</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="2"/>
+        <v>11858.8519657423</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="2"/>
+        <v>11856.664817974191</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3">
+        <f>AVERAGE(N2:N33)</f>
+        <v>11860.926450007155</v>
+      </c>
+      <c r="O35" s="3">
+        <f>AVERAGE(O2:O33)</f>
+        <v>11845.286820698722</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35">
-        <v>10749.375910000001</v>
-      </c>
-      <c r="C35">
-        <v>10745.985000000001</v>
-      </c>
-      <c r="D35">
-        <v>10749.392379999999</v>
-      </c>
-      <c r="E35">
-        <v>10745.68483</v>
-      </c>
-      <c r="F35">
-        <v>10744.806420000001</v>
-      </c>
-      <c r="G35">
-        <v>10729.37421</v>
-      </c>
-      <c r="H35">
-        <v>10736.68312</v>
-      </c>
-      <c r="I35">
-        <v>10792.16113</v>
-      </c>
-      <c r="J35">
-        <v>10794.428980000001</v>
-      </c>
-      <c r="K35">
-        <v>10791.991378028801</v>
-      </c>
-      <c r="L35">
-        <v>10794.4402787323</v>
-      </c>
-      <c r="N35">
-        <v>10790.3607933084</v>
-      </c>
-      <c r="O35">
-        <v>10747.3758751404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="3">
-        <v>11882.03046</v>
-      </c>
-      <c r="C37" s="3">
-        <v>11879.19477</v>
-      </c>
-      <c r="D37" s="3">
-        <v>11877.22905</v>
-      </c>
-      <c r="E37" s="3">
-        <v>11874.67808</v>
-      </c>
-      <c r="F37" s="3">
-        <v>11872.4619</v>
-      </c>
-      <c r="G37" s="3">
-        <v>11862.32048</v>
-      </c>
-      <c r="H37" s="3">
-        <v>11863.47572</v>
-      </c>
-      <c r="I37" s="4">
-        <v>11868.67993</v>
-      </c>
-      <c r="J37" s="5">
-        <v>11866.32584</v>
-      </c>
-      <c r="K37" s="4">
-        <f>AVERAGE(K2:K35)</f>
-        <v>11868.942646738276</v>
-      </c>
-      <c r="L37" s="5">
-        <f>AVERAGE(L2:L35)</f>
-        <v>11866.552335977551</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="3">
-        <f>AVERAGE(N2:N35)</f>
-        <v>11870.88644110216</v>
-      </c>
-      <c r="O37" s="3">
-        <f>AVERAGE(O2:O35)</f>
-        <v>11854.971300875804</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="I38" t="s">
+    <row r="36" spans="1:23">
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
         <v>47</v>
       </c>
-      <c r="J38" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
         <v>48</v>
-      </c>
-      <c r="L38" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="Q2:Q33">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>